--- a/biology/Zoologie/Gliridae/Gliridae.xlsx
+++ b/biology/Zoologie/Gliridae/Gliridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Gliridés, Gliridae (syn. Myoxidae), sont une famille de rongeurs de tailles moyennes qui comprend les loirs, lérots, lérotins et muscardins. Dans les classifications récentes, la famille regroupe en général 28 espèces réparties dans 9 genres et dans trois sous-familles mais en sus, plus de 30 genres fossiles datant au plus tôt du Bartonien ont été découverts[3]. Le nom scientifique Gliridae, désormais plus généralement admis que Myoxidae, a été créé par un détenteur de la Chaire royale de zoologie de l'université de Glasgow, Lockhart Muirhead en 1819, alors que celui de Myoxidae l'a été par John Edward Gray en 1821.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Gliridés, Gliridae (syn. Myoxidae), sont une famille de rongeurs de tailles moyennes qui comprend les loirs, lérots, lérotins et muscardins. Dans les classifications récentes, la famille regroupe en général 28 espèces réparties dans 9 genres et dans trois sous-familles mais en sus, plus de 30 genres fossiles datant au plus tôt du Bartonien ont été découverts. Le nom scientifique Gliridae, désormais plus généralement admis que Myoxidae, a été créé par un détenteur de la Chaire royale de zoologie de l'université de Glasgow, Lockhart Muirhead en 1819, alors que celui de Myoxidae l'a été par John Edward Gray en 1821.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certaines de ces espèces sont devenues géantes, comme Leithia melitensis[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certaines de ces espèces sont devenues géantes, comme Leithia melitensis.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Gliridés étaient présents en Europe de l'ouest au Miocène. Leurs fossiles ont notamment été étudiés et comparés dans la Gironde[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Gliridés étaient présents en Europe de l'ouest au Miocène. Leurs fossiles ont notamment été étudiés et comparés dans la Gironde.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les membres de cette famille se retrouvent en Eurasie de la côte Atlantique au Japon et en Afrique.
 Ces espèces vivent dans les régions tempérées, subtropicales, et les forêts tropicales ainsi, dans les forêts claires, les savanes, au bord de rivières et cours d'eau, dans les affleurements rocheux, les jardins, et des zones arbricoles, voire en désert.
@@ -607,14 +625,54 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Liste des sous-familles
-Selon ITIS      (3 octobre 2020)[6] et Mammal Species of the World (version 3, 2005)  (3 octobre 2020)[2] et NCBI  (3 octobre 2020)[7] :
+          <t>Liste des sous-familles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon ITIS      (3 octobre 2020) et Mammal Species of the World (version 3, 2005)  (3 octobre 2020) et NCBI  (3 octobre 2020) :
 sous-famille Glirinae Muirhead, 1819
 sous-famille Graphiurinae Winge, 1887
 sous-famille Leithiinae Lydekker, 1896
-BioLib                    (3 octobre 2020)[1] ajoute les Myomiminae Daams, 1981 et Myoxinae.
-Liste des genres
-Selon BioLib                    (3 octobre 2020)[1] :
+BioLib                    (3 octobre 2020) ajoute les Myomiminae Daams, 1981 et Myoxinae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gliridae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gliridae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Nomenclature et systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (3 octobre 2020) :
 genre Altomiramys Díaz Molina &amp; López Martínez, 1979 †
 genre Carbomys Mein &amp; Adrover, 1982 †
 genre Chaetocauda Wang, 1985
@@ -637,20 +695,91 @@
 genre Selevinia Belosludov &amp; Bazhanov, 1939
 genre Tempestia van de Weerd, 1976 †
 genre Vasseuromys Baudelot &amp; de Bonis, 1966 †
-Liste des sous-familles, genres et sous-genres
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Gliridae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gliridae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Nomenclature et systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liste des sous-familles, genres et sous-genres</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Dryomys nitedula
 			Eliomys quercinus
 			Glirulus japonicus
 			Glis glis
 			Graphiurus murinus
 			Muscardinus avellanarius
-Histoire de la classification
-Les Gliridae sont également connus sous le nom de Myoxidae et de Muscardinidae. Gliridae est le plus ancien des trois noms. La phylogénie et donc la classification de cette famille n'est toujours pas très claire, du fait de l'absence d'étude phylogénétique moléculaire. La composition de la famille a cependant évoluée dans le sens ci-dessous[9] :
-Initialement la famille ne comportait que trois genres. Gray y rajoute des rongeurs arboricoles sud-américains appelés rats épineux et du genre Echimys. Les Gerbilles de Gerbillus ont rejoint ensuite les Murinae, Dipus sagitta rejoint les autres gerboises au sein des Dipodidae, tandis que les Echimys sont regroupés dans ce qui allait devenir la vaste famille des Echimyidae. Le genre Myoxus a été subdivisé en quatre sous-genres par Wagner en 1840 avant que ceux-ci ne soient reconnus comme genre à part entière, ce sont les genres Graphiurus, Eliomys, Glis, Muscardinus. En 1904, Thomas crée le genre Glirulus à partir de l'espèce restante dans Myoxus et Dryomys à partir d'un sous-genre de Eliomys. Les genres Myomimus et Chaetocauda ont été ajoutés à cette famille, respectivement en 1924 et 1985. Les Selevinia, autrefois classés dans les Muridae, sont aujourd'hui, soit classés dans une famille monotypique appelée Seleviniidae ou dans cette famille[9]. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Gliridae</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gliridae</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Nomenclature et systématique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Histoire de la classification</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Gliridae sont également connus sous le nom de Myoxidae et de Muscardinidae. Gliridae est le plus ancien des trois noms. La phylogénie et donc la classification de cette famille n'est toujours pas très claire, du fait de l'absence d'étude phylogénétique moléculaire. La composition de la famille a cependant évoluée dans le sens ci-dessous :
+Initialement la famille ne comportait que trois genres. Gray y rajoute des rongeurs arboricoles sud-américains appelés rats épineux et du genre Echimys. Les Gerbilles de Gerbillus ont rejoint ensuite les Murinae, Dipus sagitta rejoint les autres gerboises au sein des Dipodidae, tandis que les Echimys sont regroupés dans ce qui allait devenir la vaste famille des Echimyidae. Le genre Myoxus a été subdivisé en quatre sous-genres par Wagner en 1840 avant que ceux-ci ne soient reconnus comme genre à part entière, ce sont les genres Graphiurus, Eliomys, Glis, Muscardinus. En 1904, Thomas crée le genre Glirulus à partir de l'espèce restante dans Myoxus et Dryomys à partir d'un sous-genre de Eliomys. Les genres Myomimus et Chaetocauda ont été ajoutés à cette famille, respectivement en 1924 et 1985. Les Selevinia, autrefois classés dans les Muridae, sont aujourd'hui, soit classés dans une famille monotypique appelée Seleviniidae ou dans cette famille. 
 En outre les genres de taxons fossiles : 
-Armantomys (syn. Quercomys), Glirurus, Graphiurops, Leithia, Mioglis, Paraglirulus, Paraglis, Plesiodyromys, Praearmantomys, Stertomys, Suevoglis[10].
+Armantomys (syn. Quercomys), Glirurus, Graphiurops, Leithia, Mioglis, Paraglirulus, Paraglis, Plesiodyromys, Praearmantomys, Stertomys, Suevoglis.
 Plusieurs sous-familles ont été également créées. Leur contenu et leurs noms varient beaucoup selon les auteurs, les trois reconnues actuellement étant Graphiurinae, Leithiinae et Glirinae. Myoxinae est désuet. Certaines taxons de sous-familles servent à regrouper des espèces fossiles comme Bransatoglirinae, Dryomyinae, Gliravinae, Myomiminae.
-L'emplacement de la famille au sein des Rodentia a également été source de controverse ; en effet les gliridés disposent de nombreuses caractéristiques communes avec d'autres rongeurs comme les Dipodoidea, les Muroidea et les Sciuridae[11].
+L'emplacement de la famille au sein des Rodentia a également été source de controverse ; en effet les gliridés disposent de nombreuses caractéristiques communes avec d'autres rongeurs comme les Dipodoidea, les Muroidea et les Sciuridae.
 </t>
         </is>
       </c>
